--- a/Final Project Presentation/01_ CS691_CRN23288_TEAM2_WEEK8_Road Map_BiteBuddy_V5.xlsx
+++ b/Final Project Presentation/01_ CS691_CRN23288_TEAM2_WEEK8_Road Map_BiteBuddy_V5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarun\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DA4547-1CC8-4D68-BE98-ACFECD06D927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773FBFF-71D4-41D9-9F81-C956F3B2DA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,6 +574,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,9 +611,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -728,22 +728,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>388621</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>71288</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6EEF58-4855-AE22-900A-EFDDDF92EC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ACF37D2-CC4A-0ABA-5892-18B8080F5EC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -759,8 +759,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="0"/>
-          <a:ext cx="13190220" cy="6106328"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12161520" cy="5646646"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -992,11 +992,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1019,12 +1019,12 @@
         <v>2</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -1054,7 +1054,7 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -1077,8 +1077,8 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="34"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="6">
@@ -1098,8 +1098,8 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="34"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="6">
@@ -1119,8 +1119,8 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="34"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="6">
@@ -1138,7 +1138,7 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1182,7 +1182,7 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1224,7 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1310,7 +1310,7 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="5" t="s">
         <v>26</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1415,7 +1415,7 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="34"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="34"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="34"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="5" t="s">
         <v>32</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1497,7 +1497,7 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="34"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="5" t="s">
         <v>34</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="34"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="5" t="s">
         <v>35</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="35"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1579,7 +1579,7 @@
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="34"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="5" t="s">
         <v>39</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="34"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="5" t="s">
         <v>40</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="34"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="5" t="s">
         <v>41</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="34"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="5" t="s">
         <v>42</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="34"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="5" t="s">
         <v>43</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="12" t="s">
         <v>44</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="30" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -1709,7 +1709,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="15" t="s">
         <v>47</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="G36" s="20"/>
     </row>
     <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="15" t="s">
         <v>48</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="30"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="15" t="s">
         <v>49</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="30"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="15" t="s">
         <v>50</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="31"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="15" t="s">
         <v>51</v>
       </c>
@@ -14402,9 +14402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49200CE3-5696-4042-A478-A8ADAF32D142}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
